--- a/DominicanaLimpia/Pantillas/11.xlsx
+++ b/DominicanaLimpia/Pantillas/11.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\1.DOMINICANA LIMPIA\4.DOMINICANA LIMPIA-jun2019-dic2019\Presupuestos\5. SISTEMATIZACIÓN\DATOS PARA WILLIAMS\NUEVAS PLANTILLAS COMPLEMENTARIAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/[C] Windows 8.1.hidden/Developer/DominicanaLimpia/DominicanaLimpiaMaster/DominicanaLimpia/Pantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9280D7-27D8-40D6-B97E-148595B9E596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B362C73-A70B-4A9C-994A-4FE6B86E8E24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
-    <sheet name="ESTUDIANTES-primaria" sheetId="1" r:id="rId1"/>
+    <sheet name="11" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -72,13 +71,16 @@
     <definedName name="_8.Encuentro_en_cada_municipio_con_medios_de_comunicación_e_inicio_Campaña_publicitaria._Anuncio_fecha_de_inicio_recogida_separada_de_los_residuos.">[4]Nombres!$C$16</definedName>
     <definedName name="_9.Compra_de_Equipamiento_y_Puntos_Limpios." localSheetId="0">#REF!</definedName>
     <definedName name="_9.Compra_de_Equipamiento_y_Puntos_Limpios.">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ESTUDIANTES-primaria'!$A$1:$AB$43</definedName>
     <definedName name="Diseño_e_Impresión_de_documento_instructivo__del_proyecto." localSheetId="0">#REF!</definedName>
     <definedName name="Diseño_e_Impresión_de_documento_instructivo__del_proyecto.">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'11'!$A$1:$AB$43</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -92,17 +94,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={4E3C99DA-5FBB-433C-B260-9C4C495D4ABF}</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{4E3C99DA-5FBB-433C-B260-9C4C495D4ABF}">
+    <comment ref="F5" authorId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Aqui se ingresan los resultados</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -274,10 +285,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -433,14 +444,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,123 +459,123 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -572,147 +583,147 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,18 +732,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,7 +751,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -748,24 +759,24 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
@@ -801,7 +812,7 @@
     <xf numFmtId="3" fontId="5" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -823,7 +834,7 @@
     <xf numFmtId="3" fontId="5" fillId="8" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +856,7 @@
     <xf numFmtId="3" fontId="5" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,6 +882,12 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,19 +946,13 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Millares 2 2" xfId="3" xr:uid="{E4B10625-2717-452B-B2EC-19800704D5DE}"/>
+    <cellStyle name="Millares 2 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{ED9112C3-C283-40F9-9E2A-2682238EDE42}"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="4" xr:uid="{FF774524-C163-4A63-9F3B-E70E7B59F027}"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -957,9 +968,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -977,10 +988,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2928787566475659E-2"/>
-          <c:y val="4.8318511334308679E-2"/>
-          <c:w val="0.93097843921342305"/>
-          <c:h val="0.55399479377192851"/>
+          <c:x val="0.0329287875664757"/>
+          <c:y val="0.0483185113343087"/>
+          <c:w val="0.930978439213423"/>
+          <c:h val="0.553994793771928"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1002,7 +1013,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ESTUDIANTES-primaria'!$B$7:$B$28</c:f>
+              <c:f>'11'!$B$7:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1076,10 +1087,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ESTUDIANTES-primaria'!$C$7:$C$28</c:f>
+              <c:f>'11'!$C$7:$C$28</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4588-4E83-B375-4BDE16AEB45D}"/>
             </c:ext>
@@ -1100,7 +1111,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ESTUDIANTES-primaria'!$B$7:$B$28</c:f>
+              <c:f>'11'!$B$7:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1174,10 +1185,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ESTUDIANTES-primaria'!$D$7:$D$28</c:f>
+              <c:f>'11'!$D$7:$D$28</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4588-4E83-B375-4BDE16AEB45D}"/>
             </c:ext>
@@ -1224,7 +1235,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-DO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1234,8 +1245,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1256,7 +1268,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ESTUDIANTES-primaria'!$B$7:$B$28</c:f>
+              <c:f>'11'!$B$7:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1330,80 +1342,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ESTUDIANTES-primaria'!$E$7:$E$28</c:f>
+              <c:f>'11'!$E$7:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2684</c:v>
+                  <c:v>2684.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2366</c:v>
+                  <c:v>2366.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297</c:v>
+                  <c:v>297.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1212</c:v>
+                  <c:v>1212.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3039</c:v>
+                  <c:v>3039.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1090</c:v>
+                  <c:v>1090.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1752</c:v>
+                  <c:v>1752.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2412</c:v>
+                  <c:v>2412.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1182</c:v>
+                  <c:v>1182.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>494</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2697</c:v>
+                  <c:v>2697.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3217</c:v>
+                  <c:v>3217.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>772</c:v>
+                  <c:v>772.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>945</c:v>
+                  <c:v>945.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5006</c:v>
+                  <c:v>5006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1225</c:v>
+                  <c:v>1225.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3364</c:v>
+                  <c:v>3364.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4638</c:v>
+                  <c:v>4638.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1499</c:v>
+                  <c:v>1499.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>776</c:v>
+                  <c:v>776.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>371</c:v>
+                  <c:v>371.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4588-4E83-B375-4BDE16AEB45D}"/>
             </c:ext>
@@ -1454,7 +1466,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-DO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1465,8 +1477,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1487,7 +1500,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ESTUDIANTES-primaria'!$B$7:$B$28</c:f>
+              <c:f>'11'!$B$7:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1561,80 +1574,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ESTUDIANTES-primaria'!$F$7:$F$28</c:f>
+              <c:f>'11'!$F$7:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4588-4E83-B375-4BDE16AEB45D}"/>
             </c:ext>
@@ -1650,11 +1663,11 @@
         </c:dLbls>
         <c:gapWidth val="103"/>
         <c:overlap val="100"/>
-        <c:axId val="1680088112"/>
-        <c:axId val="1680085936"/>
+        <c:axId val="-2067727424"/>
+        <c:axId val="-2067723776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1680088112"/>
+        <c:axId val="-2067727424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,10 +1713,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-DO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1680085936"/>
+        <c:crossAx val="-2067723776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1680085936"/>
+        <c:axId val="-2067723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1734,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1680088112"/>
+        <c:crossAx val="-2067727424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,7 +1771,7 @@
           <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-DO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1771,9 +1784,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1824,6 +1837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1846,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-DO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1916,7 +1930,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
               </c:ext>
@@ -1941,7 +1955,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
               </c:ext>
@@ -1952,8 +1966,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13849410091200809"/>
-                  <c:y val="-0.32026411968118718"/>
+                  <c:x val="-0.138494100912008"/>
+                  <c:y val="-0.320264119681187"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1962,15 +1976,15 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{BBF99EF4-52DA-4B34-8F20-0E04F9641BB5}" type="VALUE">
-                      <a:rPr lang="en-US">
+                      <a:rPr lang="is-IS">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[VALOR]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0">
+                    <a:endParaRPr lang="is-IS" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
@@ -1978,15 +1992,15 @@
                   </a:p>
                   <a:p>
                     <a:fld id="{3648CC57-D2AB-4302-A5A0-ECF862704F1B}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="is-IS" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[PORCENTAJE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-DO"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1997,19 +2011,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.1572776523016374"/>
-                      <c:h val="0.24350238081129821"/>
+                      <c:w val="0.157277652301637"/>
+                      <c:h val="0.243502380811298"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2017,8 +2031,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1224813467242049"/>
-                  <c:y val="0.15915845578384161"/>
+                  <c:x val="0.122481346724205"/>
+                  <c:y val="0.159158455783842"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2027,15 +2041,15 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{8D896B9C-DAC1-45DD-B267-8F8FB35E4A29}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1000">
+                      <a:rPr lang="is-IS" sz="1000">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[VALOR]</a:t>
+                      <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1000" baseline="0">
+                    <a:endParaRPr lang="is-IS" sz="1000" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
@@ -2043,7 +2057,7 @@
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1000" baseline="0">
+                      <a:rPr lang="is-IS" sz="1000" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -2051,15 +2065,15 @@
                       <a:t> </a:t>
                     </a:r>
                     <a:fld id="{63605AA4-68F3-41E1-BB32-D4F522F7B2AB}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" sz="1000" baseline="0">
+                      <a:rPr lang="is-IS" sz="1000" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[PORCENTAJE]</a:t>
+                      <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" sz="1000" baseline="0">
+                    <a:endParaRPr lang="is-IS" sz="1000" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
@@ -2074,19 +2088,19 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.13483336656790967"/>
-                      <c:h val="0.19985622337029857"/>
+                      <c:w val="0.13483336656791"/>
+                      <c:h val="0.199856223370299"/>
                     </c:manualLayout>
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2123,7 +2137,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-DO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2148,7 +2162,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="ellipse">
@@ -2164,7 +2178,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ESTUDIANTES-primaria'!$B$33:$B$34</c:f>
+              <c:f>'11'!$B$33:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2178,20 +2192,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ESTUDIANTES-primaria'!$E$29:$F$29</c:f>
+              <c:f>'11'!$E$29:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43022</c:v>
+                  <c:v>43022.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3004</c:v>
+                  <c:v>3004.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-97D8-4DD0-8FAE-DB87DF6CEFC3}"/>
             </c:ext>
@@ -2217,6 +2231,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2242,20 +2257,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-DO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2281,7 +2296,7 @@
           <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-DO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3411,7 +3426,7 @@
         <xdr:cNvPr id="2" name="Grupo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4AF84B-C4F0-4C44-A145-AFC0B65DFBFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B4AF84B-C4F0-4C44-A145-AFC0B65DFBFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,8 +3434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8556624" y="238125"/>
-          <a:ext cx="15160625" cy="8556625"/>
+          <a:off x="9726082" y="227542"/>
+          <a:ext cx="17277292" cy="8403166"/>
           <a:chOff x="4746624" y="158750"/>
           <a:chExt cx="15160625" cy="7381876"/>
         </a:xfrm>
@@ -3430,7 +3445,7 @@
           <xdr:cNvPr id="3" name="Gráfico 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BB91A3-EE14-43DE-85A0-658B2F67A236}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44BB91A3-EE14-43DE-85A0-658B2F67A236}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3451,7 +3466,7 @@
           <xdr:cNvPr id="4" name="Grupo 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DEDB10-965F-42E4-AFF2-F63DFC4711F6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70DEDB10-965F-42E4-AFF2-F63DFC4711F6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3470,7 +3485,7 @@
             <xdr:cNvPr id="5" name="Grupo 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD55DB39-D3B8-4941-A689-908C45F0C8D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD55DB39-D3B8-4941-A689-908C45F0C8D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3489,7 +3504,7 @@
               <xdr:cNvPr id="9" name="Rectángulo 8">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A936172-F68A-4229-B3ED-8089E0B90D22}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A936172-F68A-4229-B3ED-8089E0B90D22}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3542,7 +3557,7 @@
               <xdr:cNvPr id="10" name="Rectángulo 9">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F706E63-11CE-4DAB-86D3-FC1D1815B5F5}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F706E63-11CE-4DAB-86D3-FC1D1815B5F5}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3596,7 +3611,7 @@
             <xdr:cNvPr id="6" name="Grupo 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6CB69D-5E38-4A33-8C4A-B9D1DF0FC4F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A6CB69D-5E38-4A33-8C4A-B9D1DF0FC4F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3615,7 +3630,7 @@
               <xdr:cNvPr id="7" name="Rectángulo 6">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDD0C78-5411-47A0-875A-1E1E50CB52DC}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FDD0C78-5411-47A0-875A-1E1E50CB52DC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3668,7 +3683,7 @@
               <xdr:cNvPr id="8" name="Rectángulo 7">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FC3F5D-A363-4647-885E-BFE7C52C7DBD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77FC3F5D-A363-4647-885E-BFE7C52C7DBD}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3739,7 +3754,7 @@
         <xdr:cNvPr id="11" name="Globo: flecha hacia abajo 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9EEB78-1C59-4366-9A97-87B4C26EA31A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA9EEB78-1C59-4366-9A97-87B4C26EA31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,7 +3824,7 @@
         <xdr:cNvPr id="12" name="Gráfico 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B66E70-20AF-40DB-9A32-7C3B3F844E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07B66E70-20AF-40DB-9A32-7C3B3F844E7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3848,7 +3863,7 @@
         <cdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B98E79-9857-4789-8C16-3C155673B7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B98E79-9857-4789-8C16-3C155673B7C8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -4011,87 +4026,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="REVISIÒN atabey"/>
-      <sheetName val="REVISIÒN"/>
-      <sheetName val="BASE"/>
-      <sheetName val="EjeMesxMes-Oct"/>
-      <sheetName val="EjeMesxMes-Nov"/>
-      <sheetName val="NOV-act "/>
-      <sheetName val="NOV"/>
-      <sheetName val="OCT-act"/>
-      <sheetName val="OCT"/>
-      <sheetName val="SEP-act"/>
-      <sheetName val="SEP"/>
-      <sheetName val="PRESUPUESTO GENERAL PDL"/>
       <sheetName val="Nombres"/>
-      <sheetName val="Tabla dina"/>
-      <sheetName val="III"/>
-      <sheetName val="II"/>
-      <sheetName val="I"/>
-      <sheetName val="NOMINA"/>
-      <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>11.Campaña Educativa y promocional: Equipo de promotores,  estudiantes, cuñas, etc.</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>13.Charlas con Juntas de Vecinos para Sensibilización y compromiso de clasificación de los residuos solidos</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>16.Jornada de capacitación con empleados de ornato y aseo urbano sobre clasificación de los residuos sólidos y relaciones interpersonales con los munícipes. Promotores/ Capacitadores.</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>17.Jornada de capacitación según actores (universitarios, empleados públicos, empleados privados y población en general</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>21.Talleres sobre cultura del reciclaje</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>22.Concurso Navideño de decoración con material reciclaje</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>26A.ACCION GENERAL PROYECTO: Personal gestion proyecto.</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>26B.ACCION GENERAL PROYECTO: Viaticos y combustible)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4647,67 +4585,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F0951-FBAD-4918-AD1C-DE3DC825B789}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF159BFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="5.1640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:36" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="57">
         <v>0.25</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="38" t="s">
@@ -4717,16 +4655,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="58"/>
+    <row r="6" spans="1:36" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:36" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4689,7 @@
         <v>0.37257824143070045</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -4805,7 +4743,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -4859,7 +4797,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -4913,7 +4851,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +4905,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -5021,7 +4959,7 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -5075,7 +5013,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5067,7 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +5121,7 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -5237,7 +5175,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -5291,7 +5229,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -5345,7 +5283,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -5399,7 +5337,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -5453,7 +5391,7 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
@@ -5507,7 +5445,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
@@ -5561,7 +5499,7 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
@@ -5615,7 +5553,7 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -5669,7 +5607,7 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
@@ -5723,7 +5661,7 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>41</v>
       </c>
@@ -5777,7 +5715,7 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>43</v>
       </c>
@@ -5802,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>45</v>
       </c>
@@ -5856,11 +5794,11 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" s="32" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:36" s="32" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="28">
         <f>SUM(C7:C28)</f>
         <v>1285441</v>
@@ -5911,143 +5849,143 @@
       <c r="AI29" s="31"/>
       <c r="AJ29" s="31"/>
     </row>
-    <row r="30" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" spans="1:36" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="E37" s="34"/>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="E38" s="35"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
